--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413769.0086659698</v>
+        <v>-416257.747695486</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>300.9887210110783</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>148.6546756168605</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>256.2534865485207</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.4272108043264</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>166.6848130948515</v>
       </c>
       <c r="G5" t="n">
-        <v>115.7489098132458</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>105.8075447817137</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>114.0495374903446</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>190.5958681703706</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>238.8071638495635</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.80487962572866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>195.6136009115031</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>103.2360561910032</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>253.6303937659897</v>
       </c>
       <c r="X16" t="n">
-        <v>44.30292280757614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>96.36494467178768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>39.19314274110825</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>80.88538973874932</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.839588425939787</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>22.65115569188744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>128.3548363691468</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.73433514019965</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>188.013428794602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.52295781333198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="38">
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>19.67525987919283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.407367302545</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C2" t="n">
-        <v>1673.378356180243</v>
+        <v>1522.390776791883</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.112657573493</v>
+        <v>1164.125078185133</v>
       </c>
       <c r="E2" t="n">
-        <v>929.3244049752486</v>
+        <v>778.3368255868886</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>367.350920797281</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278356</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3128071620206</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>192.1961677496849</v>
       </c>
       <c r="E4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1329.547110979149</v>
       </c>
       <c r="D5" t="n">
-        <v>915.7444596518455</v>
+        <v>971.2814123723988</v>
       </c>
       <c r="E5" t="n">
-        <v>529.9562070536012</v>
+        <v>585.4931597741545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.0107063043978</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4635,37 +4635,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V7" t="n">
-        <v>310.7277411117484</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W7" t="n">
-        <v>310.7277411117484</v>
+        <v>409.7032203507509</v>
       </c>
       <c r="X7" t="n">
-        <v>310.7277411117484</v>
+        <v>181.7136694527335</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2126.729101932992</v>
+        <v>2175.400891308159</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1806.438374367747</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1448.172675760997</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X8" t="n">
-        <v>2513.328941997114</v>
+        <v>2952.140063348093</v>
       </c>
       <c r="Y8" t="n">
-        <v>2513.328941997114</v>
+        <v>2562.000731372281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.643323038294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>223.643323038294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>223.643323038294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>223.643323038294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818241</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W10" t="n">
-        <v>444.4359021818241</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="X10" t="n">
-        <v>444.4359021818241</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.643323038294</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924457</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.20336871857</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935562</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>835.5837926935562</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>685.4671532812205</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>537.5540596988274</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>390.664112200917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>223.4680129157969</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,19 +6725,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V34" t="n">
-        <v>1565.519003264322</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.101833227361</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X34" t="n">
-        <v>1048.112282329344</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2399.970196900127</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2217.115362555031</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.513897577973</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,34 +7546,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>64.28417075992928</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>31.28029855266319</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.3081818887566</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.9484181982409</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>32.89260457060132</v>
       </c>
       <c r="X16" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229301</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>171.2522535850787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>64.53565828418191</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.93987647707706</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>64.12421452922595</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>147.571561219435</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159837</v>
+        <v>35180.04910159842</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,7 +26433,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26445,7 +26445,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26454,10 +26454,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498549</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498543</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455543</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.93478705359</v>
+        <v>85833.93478705306</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705335</v>
+        <v>85833.93478705364</v>
       </c>
       <c r="E6" t="n">
-        <v>-160080.2657116522</v>
+        <v>-160115.0036370876</v>
       </c>
       <c r="F6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702675</v>
       </c>
       <c r="G6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702676</v>
       </c>
       <c r="H6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="I6" t="n">
-        <v>165332.1960957032</v>
+        <v>165297.4581702674</v>
       </c>
       <c r="J6" t="n">
-        <v>-52199.00630157435</v>
+        <v>-52233.74422701016</v>
       </c>
       <c r="K6" t="n">
-        <v>165332.1960957028</v>
+        <v>165297.4581702672</v>
       </c>
       <c r="L6" t="n">
-        <v>165332.1960957033</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="M6" t="n">
-        <v>80277.16816019117</v>
+        <v>80242.43023475565</v>
       </c>
       <c r="N6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="O6" t="n">
         <v>140735.3423699666</v>
       </c>
       <c r="P6" t="n">
-        <v>160163.0603635984</v>
+        <v>160163.0603635983</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>258.2213701248509</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>123.3879405522696</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.00675184224275</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,11 +27625,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>240.1912326468599</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>295.1728158402076</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>146.3300985421143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>104.5351158617502</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>174.677023600637</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>168.0688818921479</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6161683972026</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>90.90939742508792</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>614.59004755871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>471.9938031142656</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
